--- a/Bank/Bank.xlsx
+++ b/Bank/Bank.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DbTables" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="requirements" sheetId="3" r:id="rId3"/>
-    <sheet name="User settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Currency</t>
   </si>
@@ -61,24 +58,6 @@
     <t>IdCurrency</t>
   </si>
   <si>
-    <t xml:space="preserve">Домашний бюджет 
-Краткое описание:
-Программа позволит отслеживать поступления и траты семьи, выяснять на какие нужды уходят деньги и экономить, убирая из бюджета не нужные расходы. Программа не предусматривает редактирование товаров и категорий расходов. 
-Требования: 
-• Программа содержит базу данных с развернутым перечнем товаров, разбитым на категории. 
-• Каждый месяц пользователь может открыть приход и расход. 
-• Каждая статья расходов содержит дату, сумму, категорию расходов, наименование товара, описание. 
-• Программа должна выдавать статистику расходов (категория, сумма) с общим итогом. 
-• Список расходов должен отображаться в элементе управления ListView. 
-• Программа должна предоставлять фильтр расходов по категориям. 
-• Пользователь может удалить или отредактировать статью расходов. 
-• Программа должна выводить статистику расходов в процентном соотношении (категория, проценты). 
-• Программа должна выполнять сравнение расходов по текущему месяцу с расходами по предыдущему месяцу. 
-Рабочая среда: любой компьютер.
-Пользователи: любой пользователь ПК.
-</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -161,61 +140,13 @@
   </si>
   <si>
     <t>Логин уникален. Пароль может отсутствовать или повторяться у разных пользователей. Один пользователь может иметь больше одного логина.</t>
-  </si>
-  <si>
-    <t>report types</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Программа содержит базу данных с развернутым перечнем товаров, разбитым на категории. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Каждый месяц пользователь может открыть приход и расход. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Каждая статья расходов содержит дату, сумму, категорию расходов, наименование товара, описание. </t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>in process</t>
-  </si>
-  <si>
-    <t>report name</t>
-  </si>
-  <si>
-    <t>Balance currency</t>
-  </si>
-  <si>
-    <t>валюта баланса</t>
-  </si>
-  <si>
-    <t> Программа должна выполнять сравнение расходов по текущему месяцу с расходами по предыдущему месяцу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Программа должна выдавать статистику фактических расходов (категория, сумма) в разрезе видов расходов с  общим итогом. </t>
-  </si>
-  <si>
-    <t> Пользователь может удалить или отредактировать статью расходов, если не неё нет ссылок</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Программа должна выводить статистику фактических расходов в процентном соотношении (категория, проценты). </t>
-  </si>
-  <si>
-    <t>База данных должна поддерживать возможность работы для более чем одного пользователя</t>
-  </si>
-  <si>
-    <t>Каждый пользователь имеет полный доступ только к своим данным</t>
-  </si>
-  <si>
-    <t> Программа должна предоставлять возможность пользователю возможность администрирования любых данных, созданных им или общих с другим пользователем данных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,32 +163,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,20 +177,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,24 +201,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,9 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,27 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -712,243 +570,243 @@
     <col min="6" max="6" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="62.140625" style="13" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -957,197 +815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="107.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="300" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="155" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>